--- a/Data/Output/FinalReport.xlsx
+++ b/Data/Output/FinalReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad27c416e9660207/Documente/UiPath/RPA_TeamProject2/Data/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Documents\UiPath\RPA_TeamProject\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{9BCE013F-99C0-44E1-A99A-12D724603EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6161236-8D63-41FB-9803-1BBC0BD72A83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34F8D6-2AF4-4702-AA81-8E96FC85B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{FC6A08C5-753A-4052-9547-CC1161979ED2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{FC6A08C5-753A-4052-9547-CC1161979ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="DetailedData" sheetId="3" r:id="rId1"/>
@@ -55,100 +55,100 @@
     <t>Total Execution Time</t>
   </si>
   <si>
-    <t>SourceUrl</t>
-  </si>
-  <si>
-    <t>OriginalText_RO</t>
-  </si>
-  <si>
-    <t>TranslatedText_EN</t>
-  </si>
-  <si>
-    <t>RoundTripText_RO</t>
-  </si>
-  <si>
-    <t>SimilarityScore</t>
-  </si>
-  <si>
-    <t>SimilarityReason</t>
-  </si>
-  <si>
-    <t>TimeStamp</t>
-  </si>
-  <si>
     <t>https://jamilacuisine.ro/ciorba-radauteana-reteta-video/</t>
   </si>
   <si>
-    <t>Ciorba radauteana: Reteta traditionala, mai gustoasa ca ciorba de burta! Descopera secretul unei ciorbe cremoase cu pui, smantana si usturoi.</t>
-  </si>
-  <si>
-    <t>Radauteana soup: A traditional recipe that's even tastier than tripe soup! Discover the secret to a creamy soup with chicken, sour cream, and garlic.</t>
-  </si>
-  <si>
-    <t>Supa radauteană: o rețetă tradițională care este chiar mai gustoasă decât supa de măruntaie! Descoperă secretul unei supe cremoase cu pui, smântână și usturoi.</t>
-  </si>
-  <si>
     <t>https://jamilacuisine.ro/papanasi-pufosi-cu-branza-de-vaci-deliciul-copilariei-reteta-video/</t>
   </si>
   <si>
-    <t>Papanasi pufosi cu branza dulce, o reteta simpla de papanasi prajiti foarte gustosi si aromati. Deliciosi serviti cu smantana si dulceata!</t>
-  </si>
-  <si>
-    <t>Fluffy doughnuts with sweet cheese, a simple recipe for delicious and aromatic fried doughnuts. Delicious served with sour cream and jam!</t>
-  </si>
-  <si>
-    <t>Gogoși pufoase cu brânză dulce, o rețetă simplă pentru gogoși prăjite delicioase și aromate. Delicioase servite cu smântână și gem!</t>
-  </si>
-  <si>
     <t>https://jamilacuisine.ro/cozonac-cu-aluat-oparit-cozonaci-babani-si-pufosi-reteta-video/</t>
   </si>
   <si>
-    <t>Cozonac cu aluat oparit, o super reteta de cozonac urias, foate aromat, pufos si cu multa umplutura Se desface fasii si se pastreaza proaspat.</t>
-  </si>
-  <si>
-    <t>Cozonac with boiled dough, a great recipe for a huge, very aromatic, fluffy cozonac with lots of filling. Cut into strips and keep fresh.</t>
-  </si>
-  <si>
-    <t>Cozonac cu aluat fiert, o rețetă excelentă pentru un cozonac mare, foarte aromat, pufos și cu multă umplutură. Se taie în fâșii și se păstrează proaspăt.</t>
-  </si>
-  <si>
     <t>https://jamilacuisine.ro/varza-a-la-cluj-sau-sarmale-imprastiate-video/</t>
   </si>
   <si>
-    <t>Varza a la Cluj, o reteta minunata cu gust de sarmale, dar mult mai simplu si mai rapid de pregatit. Este foarte gustoasa si aromata.</t>
-  </si>
-  <si>
-    <t>Cluj-style cabbage, a wonderful recipe that tastes like stuffed cabbage rolls, but is much simpler and quicker to prepare. It is very tasty and aromatic.</t>
-  </si>
-  <si>
     <t>https://jamilacuisine.ro/sarmale-cu-carne-de-vita-si-rata-video/</t>
   </si>
   <si>
-    <t>Reteta de sarmale cu carne de vita si rata este minunata pentru cei care prefera sarmalele gustoase, dar nu grase.</t>
-  </si>
-  <si>
-    <t>This recipe for beef and duck stuffed cabbage rolls is perfect for those who prefer tasty stuffed cabbage rolls that aren't too fatty.</t>
-  </si>
-  <si>
-    <t>Această rețetă de sarmale cu carne de vită și rață este perfectă pentru cei care preferă sarmale gustoase, dar nu prea grase.</t>
-  </si>
-  <si>
-    <t>Varza în stil clujenean, o rețetă minunată care are gustul rulourilor de varză umplute, dar este mult mai simplă și mai rapidă de preparat. Este foarte gustoasă și aromată.</t>
-  </si>
-  <si>
-    <t>Texts convey the same recipe and ingredients with minor wording differences.</t>
-  </si>
-  <si>
-    <t>Texts describe the same type of sweet fried cheese pastry with minor wording differences.</t>
-  </si>
-  <si>
-    <t>Texts convey the same recipe details; only minor wording differences like "oparit" vs. "fiert" and spelling.</t>
-  </si>
-  <si>
-    <t>Texts convey nearly identical meaning, differing only in minor phrasing and word order.</t>
-  </si>
-  <si>
-    <t>Texts convey the same meaning with only minor wording differences.</t>
+    <t>Source URL</t>
+  </si>
+  <si>
+    <t>Original Text (RO)</t>
+  </si>
+  <si>
+    <t>Translated Text (EN)</t>
+  </si>
+  <si>
+    <t>Retranslated Text (RO)</t>
+  </si>
+  <si>
+    <t>Similarity Score</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Time Stamp</t>
+  </si>
+  <si>
+    <t>Home Retete VideoCiorbe si supe Ciorba radauteana traditionala, cremoasa si aromata – reteta videoCiorba radauteana traditionala, cremoasa si aromata – reteta video JamilaCuisine 21/03/2014 38 35,1KCiorba radauteana: Reteta traditionala, mai gustoasa ca ciorba de burta! Descopera secretul unei ciorbe cremoase cu pui, smantana si usturoi. Reteta Video PrinteazaPreparare 15 minute minuteGatire 1 ora oraTimpul total 1 ora ora 15 minute minuteCategorie AntreuBucatarie RomaneascaServire 8 portiiCalorii 340 kcal Va place aceasta reteta?Va rog sa-i acordati 5 stelute!4.70 from 1616 votesIngrediente ▢ 700 g carne de pui cu os▢ 300 g smantana▢ 4 galbenusuri▢ 2-3 linguri otet▢ 2 radacini mici de pastarnac▢ 2 cepe▢ 1 ardei gras▢ 1 morcov mare▢ 1 legatura patrunjel▢ 1/2 telina▢ cativa catei de usturoi▢ foi de dafin▢ sare▢ piperNutritie pe portie/bucataCalorii: 340kcal | Glucide: 13g | Proteine: 20g | Grasimi: 23g | Grasimi saturate: 9g | Sodiu: 145mg | Fibre: 3g | Zahar: 5g | Calciu: 96mgCiorba radauteana este una dintre cele mai indragite retete romanesti, perfecta atunci cand vrei ceva cremos, gustos si satios. Se face din piept de pui fraged, legume simple, smantana si oua iar usturoiul ii da acel gust specific care o face irezistibila. Este o mancare usor acrisoara, foarte aromata si potrivita pentru intreaga familie, genul de reteta care iti iese sigur si pe care o vei repeta des.Este o reteta simpla, explicata pas cu pas, asa cum imi place mie, fara complicatii inutile. Aceasta ciorba radauteana se face din ingrediente simple, la indemana, iar rezultatul este unul garantat. Se serveste fierbinte, cu ardei iute si paine proaspata, fiind ideala pentru pranz sau cina, mai ales in zilele reci. Reteta poate fi adaptata si cu legume proaspete de sezon, pentru un plus de savoare si culoare in farfurie. S-ar putea să fiți interesat: Cozonac cu aluat oparit, cozonaci babani si pufosi – reteta video 01/05/2024 Baigli / Beigli cozonac unguresc – reteta video 10/04/2015 Cozonac floare cu crema de ciocolata – reteta video 11/02/2015 Prajitura Alba ca zapada – reteta video 15/06/2013Detalii reteta ciorba radauteanaCum s-a inventat ciorba radauteana si care e povestea ei?Ingrediente esentiale: Ce bucati de pui alegem pentru o ciorba radauteana bogata?Secretul unei texturi fine: Cum preparam amestecul de smantana cu galbenusuri?Cum se fierb corect legumele si carnea pentru a obtine o baza clara?De ce se folosesc otetul si usturoiul in ciorba radauteana traditionala?Sfaturi pentru reteta de ciorba: Cum evitam taierea smantanii?Ciorba ca la Radauti vs. Ciorba de pui a la grec: Care sunt principalele diferente?Cat timp trebuie sa fiarba puiul de tara pentru un gust autentic de Bucovina?Greseli de evitat: De ce ciorba radauteana poate iesi prea grasa sau prea acra?Servire si prezentare: Cu ce garnituri servim acest preparat bucovinean?Lucruri importante de retinutCum s-a inventat ciorba radauteana si care e povestea ei?Istoria ciorbei radautene incepe in Radauti, la faimosul restaurant Nordic, unde a fost creat pentru prima data. In anul 1979, doamna Cornelia Dumitrescu, un bucatar cu experienta, a dorit sa inventeze ceva nou pentru clientii sai. Astfel, ea a creat o ciorba similara cu cea de burta, insa folosind carne de pui. Reteta ei este secreta si nu dezvlauie publicului decat o parte din ea. Diferenta majora dintre cea ciorba de burta si aceasta consta in sursa de proteina, deoarece varianta din Radauti inlocuieste complet burta de vita cu pasare. Desi ambele se dreg in acelasi fel, acest deliciu este considerat o ciorba mai usoara. O alta difierenta ar fi folosirea fainii pentru a drege ciorba, pe langa adaugarea oualor si a smantana.Multi turisti care viziteaza localul Nordic din Radauti cauta tocmai aceasta reteta originala de la doamna Cornelia, mai ales din curiozitate. Vor sa vada ce gust are ciorba fix in locul unde a fost inventata. Eu am decis sa nu urmez reteta originala 100%, ci sa vin cu varianta mea. Fara sa adaug faina, dar pastrand legumele si adaugand carne cu os pentru un gust si mai bun.Ingrediente esentiale: Ce bucati de pui alegem pentru o ciorba radauteana bogata?Pentru o reteta ciorba radauteana reusita, alegerea partilor de pasare este foarte importanta. Recomand sa folositi atat pieptul, cat si pulpele de pui, deoarece oasele ofera un gust mult mai bogat supei. Ideal ar fi sa aveti o pasare de curte. Savoarea acesteia este mult mai profunda fata de cea a puiului crescut industrial. Gustul final va fi mult mai intens.Aceasta reteta are nevoie de aproximativ 700 g de carne. Puteti folosi chiar si carne de curcan daca doriti o varianta mai consistenta. Important este sa aveti o carne proaspata si de buna calitate. Astfel veti asigura o baza savuroasa si supa va avea o claritate perfecta. Eu folosesc mereu bucati cu os pentru un plus de gust.Pe langa pasare, pregatiti morcovi, telina, pastarnac si ceapa pentru a crea baza aromata. Radacinoasele nu doar ca indulcesc zeama, dar ii ofera si o culoare apetisant</t>
+  </si>
+  <si>
+    <t>Home Retete VideoDulciuri Papanasi pufosi cu branza de vaci: Deliciul copilariei – reteta videoPapanasi pufosi cu branza de vaci: Deliciul copilariei – reteta video JamilaCuisine 10/02/2025 7 19,6KPapanasi pufosi cu branza dulce, o reteta simpla de papanasi prajiti foarte gustosi si aromati. Deliciosi serviti cu smantana si dulceata! Reteta Video PrinteazaPreparare 20 minute minuteGatire 30 minute minuteCategorie DesertBucatarie RomaneascaServire 6 papanasiCalorii 468 kcal Va place aceasta reteta?Va rog sa-i acordati 5 stelute!5 from 5 votesIngrediente ▢ 500 g branza dulce de vaci▢ 2 oua▢ 300 g faina▢ 30 g zahar▢ 5 g bicarbonat sodiu▢ 1 lingura extract de vanilie▢ 1 lingura extract de lamaie▢ putina sare▢ 200 g smantana▢ 200 g dulceata de visineNutritie pe portie/bucataCalorii: 468kcal | Glucide: 71g | Proteine: 17g | Grasimi: 12g | Grasimi saturate: 5g | Grasimi nesaturate: 0.01g | Sodiu: 856mg | Fibre: 2g | Zahar: 25g | Calciu: 125mgReteta de papanasi pufosi cu branza de vaci este una pe care o fac foarte des pentru ai mei. E aceeasi reteta pe care o fac de ani de zile si pe care am tot dezvoltat-o ca sa iasa bine de fiecare data. Cred ca am facut aceasta reteta de sute de ori si niciodata nu m-a dezamagit. Am preparat-o pentru foarte multi oameni, am facut pentru diferite ocazii si de fiecare data a fost un succes. Cand eram copil papanasii erau preferatii mei atunci cand mergeam in excursii. Ne opream la diferite restaurante si ne comandam cascaval pane cu cartofi prajiti si la desert papanasi. Era meniul de la care nu ne abateam niciodata. Cam asta comandau mai toti copiii, spre disperarea profesorilor care ne spuneau de fiecare data sa alegem si altceva pentru pranz. Renuntam doar daca era vorba de pizza.Aceasta reteta de papanasi pufosi cu branza de vaci este perfecta de fiecare data cand nu mai stim ce sa pregatim pentru desert. La noi in familie se faceau de obicei in weekend gogosi. Mama framanta o gramada de faina pentru a face suficiente gogosi cat sa ajunga pentru mai multe zile. Acum, preferam papanasii pentru ca se fac mult mai repede si sunt mai nutritivi. Au in compozitie multa branza dulce si ii puteti gati si in Air Fryer daca nu doriti sa-i prajiti. Chiar si prajiti sunt mai sanatosi decat variantele cumparate. De multe ori cei din restaurante nu prea au branza sau sunt prajiti in ulei care nu se schimba decat foarte rar. Din acest motiv prefer sa-mi fac deserturile in casa si foarte rar cumpar vreun ecler, de exemplu. In rest prefer sa-mi fac eu deserturile. S-ar putea să fiți interesat: Cozonac cu aluat oparit, cozonaci babani si pufosi – reteta video 01/05/2024 Baigli / Beigli cozonac unguresc – reteta video 10/04/2015 Cozonac floare cu crema de ciocolata – reteta video 11/02/2015 Prajitura Alba ca zapada – reteta video 15/06/2013Cum facem cei mai pufosi papanasi facuti in casa?Pentru niste papanasi pufosi cu branza de vaci reusiti este foarte important sa faceti aluatul cum trebuie. Incepeti cu branza de vaci care trebuie sa fie grasa si bine scursa de lichid. Nu folositi branza de vaci cremoasa pentru ca va fi nevoie de multa faina pentru a forma aluatul. Cu cat puneti mai multa faina, cu atat papanasii vor fi mai densi si mai putin pufosi. Nu framantati alatul prea mult din acelasi motiv. Veti dezvolta glutenul prea mult, iar papanasii nu vor mai fi pufosi. Amestecati branza dulce cu ouale, zaharul si aromele. Eu am folosit extract de vanilie si extract de lamaie marca JamilaCuisine. Sunt extracte naturale, produse in Romania si de foarte buna calitate. Obtinute prin macerare si foarte aromate. Nu contin arome artificiale sau chimicale de niciun fel.In acest amestec de papanasi pufosi cu branza de vaci adaugati faina si bicarbonatul de sodiu. Framantati doar cat incorporati faina si opriti-va. Impartiti aluatul in 6 bucati egale, iar din fiecare bucata luati putin pentru biluta de deasupra. Modelati apoi papanasul asa cum vedeti in clip. Papanasii se prajiesc obligatoriu in baie de ulei, la foc mediu spre mic pentru aproximativ 5-6 minute. In felul acesta vor fi bine gatiti si in interior. Pentru a-i servi aveti nevoie de smantana si de dulceata. Smantana trebuie sa fie grasa, iar dulceata dulce-acrisoara. Mie imi place sa folosesc dulceata de visine sau dulceata de afine. Se potrivesc ambele foarte bine. Inainte de a pune dulceata si smatana va recomand sa lasati papanasii la racit 5-10 minute si vor fi perfecti! Pufosi si gustosi! Pofta buna!Mod de preparare Instructiunile si modul de preparare pentru reteta de papanasi pufosi le gasiti in clipul de mai jos! Urmariti-l cu atentie pentru a reusi o reteta perfecta! Tags papanasipapanasi cu branza Retete pentru toate gusturile Gem de prune facut in casa, aromat si gustos – reteta video Paste cu pui si sos alb facute in casa – reteta video Supa de rosii cu usturoi copt – reteta video Cheesecake cu zmeura facut la Oster – reteta video &lt;img alt='guest' src='https://secure.gravatar.com/avatar/9f1d847f0425ad0a0c189fb3ff1c600de9d774a2c7ef</t>
+  </si>
+  <si>
+    <t>Home Retete VideoDulciuri Cozonac cu aluat oparit, cozonaci babani si pufosi – reteta videoCozonac cu aluat oparit, cozonaci babani si pufosi – reteta video JamilaCuisine 01/05/2024 306 43,9KCozonac cu aluat oparit, o super reteta de cozonac urias, foate aromat, pufos si cu multa umplutura Se desface fasii si se pastreaza proaspat. Reteta Video PrinteazaPreparare 1 ora oraGatire 1 ora oraTimpul total 2 ore oreCategorie DesertBucatarie RomaneascaServire 2 cozonaci Va place aceasta reteta?Va rog sa-i acordati 5 stelute!4.97 from 101 votesIngrediente Pentru cozonac:▢ 1 kg faina▢ 300 g zahar▢ 400 ml lapte▢ 8 galbenusuri▢ 50 g drojdie proaspata▢ 1 lingura pasta de vanilie▢ 150 g unt▢ 100 g smantana▢ 50 ml ulei▢ coaja de la 1 lamaie▢ 1 lingura esenta de lamaie▢ putina sarePentru aluatul oparit:▢ 200 ml lapte▢ 100 g fainaPentru umplutura:▢ 8 albusuri▢ 350 g nuca macinata▢ 200 g zahar▢ 50 g cacao▢ 150 g stafide▢ 300 g rahatReteta de cozonac cu aluat oparit este cea mai buna reteta pe care eu am incercat-o pana acum pentru a face cozonacul copilariei mele, mare, super pufos si foarte gustos. La noi in familie mama facea cozonacii. Reteta o invatase de la o vecina batrana foarte priceputa care facea niste cozonaci senzationali. Ea a fost cea care a venit la mama acasa si a invatat-o pas cu pas cum sa framante aluatul. I-a aratat si cum sa-l impleteasca si cum sa-l coaca. Mama face cozonaci datorita acestei femei, iar eu am invatat de la mama. Uneori mama oparea o mica parte din faina si atunci parca ii ieseau si mai bine cozonacii. Erau mai bine crescuti, mai mari si mult mai pufosi. In plus ramaneau proaspeti si moi zile la rand, lucru esential la cozonaci.Eu iubesc aceasta reteta de cozonac cu aluat oparit pentru ca nu e greu de facut si pe cuvant ca obtineti niste cozonaci uriasi, super pufosi si foarte gustosi. Bineinteles ca si reteta de cozonac obisnuita este buna, nu ma intelegi gresit, insa aceasta parca este si mai buna. In plus, acest aluat se poate folosi si la reteta de pasca cu aluat de cozonac, deci e minunat si pentru Paste. De-a lungul timpului am facut multe retete de cozonaci, cu diferite forme sau diferite umpluturi. Totusi, daca ar fi sa recomand una, ar fi cu siguranta aceasta. Pentru cei care nu pot sau nu vor sa framante, urmatoarea recomandare ar fi reteta de cozonac fara framantare. O alta reteta super simpla si care iese foarte bine de fiecare data. Singurul inconvenient este ca dureaza mai mult pentru ca trebuie sa stea la rece peste noapte. S-ar putea să fiți interesat: Cozonac cu aluat oparit, cozonaci babani si pufosi – reteta video 01/05/2024 Baigli / Beigli cozonac unguresc – reteta video 10/04/2015 Cozonac floare cu crema de ciocolata – reteta video 11/02/2015 Prajitura Alba ca zapada – reteta video 15/06/2013Cum facem cel mai pufos si mai gustos cozonac cu aluat oparit?Acest cozonac cu aluat oparit nu este atat de greu de facut pe cat ati crede. Incepem prin a opari o cantitate mica de faina cu lapte clocotit. Ingredientele pentru acest procedeu de oparire sunt cantarite separat de ingredientele pentru aluat. Apoi, tineti cont ca toate ingredientele trebuie sa fie neaparat la temperatura camerei, mai putin laptele. Acesta trebuie sa fie cald cat sa nu arda la deget. Faina trebuie sa aiba un continut cat mai mare de proteina, iar daca puteti cumpara faina manitoba este si mai bine. Daca nu, mergeti in supermarket si alegeti faina cu cea mai mare cantitate de proteina per 100g. Drojdia poate fi proaspata sau uscata. Daca folositi drojdie proaspata veti avea nevoie de 50g, daca folositi uscata 20g. Ambele variante sunt bune, depinde doar ceea ce gasiti.Pentru a obtine un cozonac cu aluat oparit foarte pufos trebuie sa framantati foarte bine aluatul. Eu am ales varianta cea mai usoara si am folosit un mixer, insa puteti la fel de bine sa-l framantati si manual. Va dura mai mult, va fi mai greu, dar va iesi la fel de bine. Umplutura am facut-o clasic, cu albusuri, dar le-am batut spuma tare cu zaharul. Abia apoi am pus nuca macinata si cacaoa. Peste aceasta umplutura am mai pus rahat si stafide, insa voi puneti ce vreti. Va puteti adauga orice umpluturi doriti, in functie de ceea ce aveti la indemana sau de ceea ce va place. Anul trecut am facut un cozonac cu crema de fistic care a fost excelent. Coaceti cozonacul fara ventilatie, la 155-160 de grade pentru aprox. o ora. Daca folositi ventilatia, scadeti temperatura cu 15-20 de grade pentru a nu ramane crud.Mod de preparare Instructiunile si modul de preparare pentru reteta de cozonac cu aluat oparit le gasiti in clipul de mai jos! Urmariti-l cu atentie pentru a reusi o reteta perfecta! Tags ciocolatacozonacreteta de cozonac Retete pentru toate gusturile Piept de pui in sos de ardei copti – reteta video Meniu de vara: 3 Retete delicioase cu rosii romanesti (VIDEO) Pasta de ardei copti cu mustar si miere – reteta video Sos aioli pas cu pas – reteta video &lt;img alt='guest' src='https://secure.gravatar.com/avatar/280e190a8f4f62b651c83095b6357</t>
+  </si>
+  <si>
+    <t>Home Retete VideoMancaruri Varza a la Cluj sau sarmale imprastiate – videoVarza a la Cluj sau sarmale imprastiate – video JamilaCuisine 30/11/2022 9 16,1KVarza a la Cluj, o reteta minunata cu gust de sarmale, dar mult mai simplu si mai rapid de pregatit. Este foarte gustoasa si aromata. Reteta Video PrinteazaPreparare 30 minute minuteGatire 2 ore oreTimpul total 2 ore ore 30 minute minuteCategorie Fel principalBucatarie RomaneascaServire 9 portiiCalorii 413 kcal Va place aceasta reteta?Va rog sa-i acordati 5 stelute!4.60 from 25 votesIngrediente ▢ 1 kg carne tocata▢ 2 kg varza murata▢ 700 g ceapa tocata▢ 1 lingura boia dulce▢ cateva frunze de dafin▢ 150 g suc de rosii▢ 70 ml ulei Spornic Omega 9▢ 200 g orez▢ 1 legatura patrunjel▢ 150 g smantana▢ sare▢ piperNutritie pe portie/bucataCalorii: 413kcal | Glucide: 37g | Proteine: 29g | Grasimi: 17g | Grasimi saturate: 5g | Grasimi nesaturate: 0.4g | Sodiu: 1771mg | Fibre: 9g | Zahar: 9g | Calciu: 129mgRețeta de varza a la Cluj este una care se face in zona Ardealului in mod special. Este o rețeta foarte veche fiind prima data consemnata intr-o carte de bucate in anul 1695. Pentru ca am cartea respectiva, reeditata evident, am consultat si eu reteta. Va pot spune ca am fost ușor dezamagita pentru ca respectiva rețeta nu are nicio legatura cu ceea ce se prepara acum ca fiind varza a la Cluj. Rețeta originala consta in varza care era fiarta intr-o supa de gaina sau de gasca apoi pusa la cuptor in straturi. Nu avea carne tocata, nu avea orez, nu avea condimente. Cu timpul reteta a evoluat si bineinteles ca s-a schimbat. Eu am urmat reteta Silviei Jurcovan cu cateva adaptari personale.Ceea ce trebuie sa stiti despre varza a la Cluj este faptul ca toate componentele se gatesc inainte de a le pune la cuptor. Incepem cu varza care poate fi murata sau proaspata. Ambele variante sunt la fel de bune, insa varianta cu varza murata e cea mai populara. Am taiat varza fideluta si am calit-o in putin ulei. Am folosit Spornic Omega 9, un ulei High Oleic de foarte buna calitate. Are o cantitate mare de acid oleic benefic in alimentatie si se poate folosi la orice fel de preparate. Varza se caleste bine pana cand se inmoaie si isi pierde din volum. Daca folositi varza proaspata, procedati in acelasi fel, dar frecati varza cu putina sare inainte de a o cali. Daca vreti sa fie acra, puneti putin otet. S-ar putea să fiți interesat: Cozonac cu aluat oparit, cozonaci babani si pufosi – reteta video 01/05/2024 Baigli / Beigli cozonac unguresc – reteta video 10/04/2015 Cozonac floare cu crema de ciocolata – reteta video 11/02/2015 Prajitura Alba ca zapada – reteta video 15/06/2013Varza a la cluj sau sarmale imprastiate, un preparat gustos si aromat.Continuam reteta de varza a la Cluj cu carnea tocata care va trebui si ea gatita inainte. Am calit-o foarte bine cu ceapa pana cand a prins putina culoare. Am folosit carne tocata de vita, insa poate fi de orice fel. Amestec, de pasare sau chiar de porc. Aveti grija sa nu fie prea grasa. Am trecut apoi la orez pe care l-am fiert pana cand a fost cam 90% gata. Am folosit orez cu bobul rotund si l-am fiert ca pe paste in multa apa, insa in apa rece. Va fi gata in aproximtiv 20 de minute. Gustati-l oricum pentru a fi sigur ca este gata si scurgeti-l de apa. Va trebui apoi sa-l amestecati cu carnea tocata gatita. Puteti folosi orice fel de orez doriti, chiar daca este cu bobul lung sau basmati. Ultima parte a retetei de varza a la Cluj o reprezinta asamblarea in tava care va merge la cuptor. Puneti la baza o treime din varza, apoi jumatate din contitatea de carne, din nou varza, ultima parte din carne si terminati cu varza. Deasupra puneti un amestec de smantana si suc de rosii. In mod obisnuit se pune doar smantana, insa eu am vrut sa adaug si un pic de suc de rosii pentru un plus de gust si de culoare. Mai puteti adauga rosii si in compozitia de carne sau chiar in varza. Are gust de sarmale, insa e mult mai simplu de pregatit si gatirea dureaza mai putin. Incercati si reteta mea de parjoale moldovesti pentru o alta reteta traditionala foarte gustoasa si aromata.Mod de preparare Instructiunile si modul de preparare pentru reteta de varza a la Cluj le gasiti in clipul de mai jos! Urmariti-l cu atentie pentru a reusi o reteta perfecta! Tags carne tocatasarmalevarza murata Retete pentru toate gusturile Creveti in sos de citrice – reteta video Ardei iuti in otet pentru iarna – reteta video Aripioare picante KFC – reteta video Rulada de pui in stil mediteranean – reteta video &lt;img alt='guest' src='https://secure.gravatar.com/avatar/e3cb5a50a92e8fa8a1c0c89727553a3bfa473947551300586361148ccca83ac7?s=56&amp;#038;d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/e3cb5a50a92e8fa8a1c0c89727553a3bfa473947551300586361148ccca83ac7?s=112&amp;#038;d=mm&amp;#038;r=g 2x' class='avatar avatar-56 photo' height='56' width='56' decoding='async'/&gt; Label Evaluați această rețetă Evaluați această rețetă Nume* Email* Postează comentariu &lt;img alt='guest' src='https://secure.grav</t>
+  </si>
+  <si>
+    <t>Home Retete VideoMancaruri Sarmale cu carne de vita si rata – reteta videoSarmale cu carne de vita si rata – reteta video JamilaCuisine 01/12/2017 0 3,8KReteta de sarmale cu carne de vita si rata este minunata pentru cei care prefera sarmalele gustoase, dar nu grase. Reteta Video PrinteazaPreparare 40 minute minuteGatire 2 ore oreTimpul total 2 ore ore 40 minute minuteCategorie Fel principalBucatarie RomaneascaServire 50 bucatiCalorii 68 kcal Va place aceasta reteta?Va rog sa-i acordati 5 stelute!4.13 from 48 votesIngrediente ▢ 500 g carne tocata de vita▢ 500 g piept de rata tocat▢ frunzele de la o varza murata▢ cimbru Cosmin▢ boia dulce Cosmin▢ 1 legatura patrunjel▢ 200 g orez▢ 350 g suc de rosii▢ 1 lingura pasta de tomate▢ 3-4 linguri ulei▢ 1/4 varza murata tocata marunt▢ 2 cepe mari tocate marunt▢ foi de dafin Cosmin▢ boabe piper Cosmin▢ sare▢ piper macinatNutritie pe portie/bucataCalorii: 68kcal | Glucide: 5g | Proteine: 4g | Grasimi: 3g | Grasimi saturate: 1g | Sodiu: 182mg | Fibre: 1g | Zahar: 1g | Calciu: 13mgReteta de sarmale cu carne de vita si rata este minunata pentru cei care prefera sarmalele gustoase, dar nu grase. Este minunata si pentru cei care, din diferite motive, nu consuma carne de porc. Imi plac in mod special aceste sarmale pentru ca sunt delicioase, suculente si ies perfect de fiecare data. Pe mine sarmalele ma duc cu gandul la sarbatori. Bunica mea face cele mai bine sarmale din lume. Imi amintesc si acum oala emailata plina de rulouri de varza cat pumnul care fierbeau incet pe plita sobei. Toata lumea ii aprecia sarmalele, chiar si tatal meu, ginerele ei, care face la randul lui niste super sarmale.De cand m-am casatorit si de cand tatal meu a inceput sa aiba probleme de sanatate, am renuntat la a face sarmale cu carne de porc. Am cautat alternative si la inceput le faceam strict cu vita. Am inceput apoi s-o combin cu curcan, iar acum cele mai bune sarmale cu carne de vita si rata. Pieptul de rata e minunat la sarmale pentru ca e gustos si are suficienta grasime cat sa faca sarmalele gustoase. Oamenii se feresc de sarmalele de vita pentru ca au impresia ca sunt uscate, dar facute bine nu e deloc asa. Toti cei care au mancat sarmale facute de mine au fost extrem de incantati si au cerut portii duble. S-ar putea să fiți interesat: Cozonac cu aluat oparit, cozonaci babani si pufosi – reteta video 01/05/2024 Baigli / Beigli cozonac unguresc – reteta video 10/04/2015 Cozonac floare cu crema de ciocolata – reteta video 11/02/2015 Prajitura Alba ca zapada – reteta video 15/06/2013Secretul acestor sarmale de vita cu rata este sa alegeti carne de vita cu putina grasime si sa tocati pieptul de rata cu tot cu piele. Va fi suficienta grasime pentru a face sarmalele gustoase, savuroase si care vor face deliciul tuturor celor de la masa. Pe langa carne, am mai adaugat boia, cimbru, foi de dafin si boabe de piper, toate marca Cosmin. Condimentele dau un plus de aroma si sunt indispensabile pentru orice reteta buna de sarmale. Am mai adaugat si patrunjel verde, iar pentru si mai mult gust, am calit putin ceapa inainte. Acest lucru este insa optional.Puteti fierbe aceste sarmale cu carne de vita si rata fie pe flacara aragazului, fie in cuptor. Eu prefer sa le fac la cuptor pentru ca se gatesc mai bine si-mi par mai gustoase. Daca aveti si un vas de lut este si mai bine. Veti obtine niste sarmale minunate care merg de minune cu taci si inghite sau mamaliga in straturi. Daca le fierbeti pe flacara, aveti grija sa verificati constant nivelul apei si sa rotiti cratita pentru ca sarmalele sa nu se prinda. Cand sunt, le puteti servi cu smantana si ardei iute si mai ales cu multa pofta! Sunt extraordinare!Mod de preparare Instructiunile si modul de preparare pentru reteta de sarmale cu carne de vita il gasiti in clipul de mai jos! Urmariti-l cu atentie pentru a reusi o reteta perfecta! Tags ratasarmalevita Retete pentru toate gusturile Sirop de menta verde perfect pentru limonade – reteta video Supa marocana / Harira marocana Langosi cu branza sarata, deliciul pufos al copilariei – reteta video Cornuri pufoase facute in casa – reteta video &lt;img alt='guest' src='https://secure.gravatar.com/avatar/205c08a983a9d94f89d4c14cb7c74841d547114f07fd416ac5787c27f0df8d79?s=56&amp;#038;d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/205c08a983a9d94f89d4c14cb7c74841d547114f07fd416ac5787c27f0df8d79?s=112&amp;#038;d=mm&amp;#038;r=g 2x' class='avatar avatar-56 photo' height='56' width='56' decoding='async'/&gt; Label Evaluați această rețetă Evaluați această rețetă Nume* Email* Postează comentariu &lt;img alt='guest' src='https://secure.gravatar.com/avatar/0458f58f4f88f03e9645a736999791993de5b43130acec8c5f644b4c24dfb6bc?s=56&amp;#038;d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/0458f58f4f88f03e9645a736999791993de5b43130acec8c5f644b4c24dfb6bc?s=112&amp;#038;d=mm&amp;#038;r=g 2x' class='avatar avatar-56 photo' height='56' width='56' decoding='async'/&gt; Label Evaluați această rețetă Evaluați această rețetă Nume* Email* Postează come</t>
+  </si>
+  <si>
+    <t>Home Recipes Videos Soups and broths Traditional Radauteana soup, creamy and aromatic – video recipe Traditional Radauteana soup, creamy and aromatic – video recipe JamilaCuisine 21/03/2014 38 35.1KCiorba radauteana: Traditional recipe, tastier than tripe soup! Discover the secret of a creamy soup with chicken, sour cream, and garlic. Video Recipe Print Preparation 15 minutes Cooking 1 hour Total time 1 hour 15 minutes Category Appetizer Romanian cuisine Serves 8 Calories 340 kcal Do you like this recipe? Please give it 5 stars! 4.70 from 1616 votes Ingredients ▢ 700 g chicken with bones▢ 300 g sour cream▢ 4 egg yolks▢ 2-3 tablespoons vinegar▢ 2 small parsnips▢ 2 onions▢ 1 bell pepper▢ 1 large carrot▢ 1 bunch parsley▢ 1/2 celery▢ a few cloves of garlic▢ bay leaves▢ salt▢ pepperNutrition per serving/pieceCalories: 340kcal | Carbohydrates: 13g | Protein: 20g | Fat: 23g | Saturated fat: 9g | Sodium: 145mg | Fiber: 3g | Sugar: 5g | Calcium: 96mg Radauteana soup is one of the most beloved Romanian recipes, perfect when you want something creamy, tasty, and filling. It is made from tender chicken breast, simple vegetables, sour cream, and eggs, and the garlic gives it that specific taste that makes it irresistible. It is a slightly sour, very aromatic dish, suitable for the whole family, the kind of recipe that always turns out well and that you will repeat often. It is a simple recipe, explained step by step, just the way I like it, without unnecessary complications. This Radautean soup is made from simple, readily available ingredients, and the result is guaranteed. It is served hot, with hot peppers and fresh bread, and is ideal for lunch or dinner, especially on cold days. The recipe can also be adapted with fresh seasonal vegetables for added flavor and color on the plate. You may be interested in: Cozonac with scalded dough, fluffy and soft cozonac – video recipe 01/05/2024 Baigli / Beigli Hungarian cozonac – video recipe 10/04/2015 Flower cozonac with chocolate cream – video recipe 02/11/2015 Snow White cake – video recipe 06/15/2013Details of the Radauteana soup recipeHow was Radauteana soup invented and what is its story?Essential ingredients: Which chicken pieces should we choose for a rich Radauti soup? The secret to a smooth texture: How do we prepare the mixture of sour cream and egg yolks? How do we cook the vegetables and meat correctly to obtain a clear base? Why are vinegar and garlic used in traditional Radauti soup? Tips for the soup recipe: How do we avoid curdling the sour cream? Radauti soup vs. Greek chicken soup: What are the main differences? How long should free-range chicken be cooked to achieve an authentic Bucovina flavor? Mistakes to avoid: Why can Radauti soup turn out too fatty or too sour? Serving and presentation: What side dishes do we serve with this Bucovina dish? Important things to remember How was Radauti soup invented and what is its story? The history of Radauti soup begins in Radauti, at the famous Nordic restaurant, where it was first created. In 1979, Mrs. Cornelia Dumitrescu, an experienced chef, wanted to invent something new for her customers. So she created a soup similar to tripe soup, but using chicken instead. Her recipe is a secret, and she only reveals part of it to the public. The main difference between tripe soup and this soup is the source of protein, as the Radauti version completely replaces beef tripe with poultry. Although both are prepared in the same way, this delicacy is considered a lighter soup. Another difference is the use of flour to thicken the soup, in addition to adding eggs and sour cream. Many tourists who visit the Nordic restaurant in Radauti are looking for Mrs. Cornelia's original recipe, mainly out of curiosity. They want to see what the soup tastes like in the place where it was invented. I decided not to follow the original recipe 100%, but to come up with my own version. Without adding flour, but keeping the vegetables and adding meat with bones for an even better taste. Essential ingredients: Which chicken parts should we choose for a rich Radauti soup? For a successful Radauti soup recipe, the choice of poultry parts is very important. I recommend using both the breast and the thighs, as the bones give the soup a much richer flavor. Ideally, you should use free-range chicken. Its flavor is much deeper than that of industrially raised chicken. The final taste will be much more intense. This recipe requires about 700 g of meat. You can even use turkey meat if you want a more substantial version. The important thing is to use fresh, good-quality meat. This will ensure a savory base and the soup will have perfect clarity. I always use bone-in pieces for extra flavor. In addition to the poultry, prepare carrots, celery, parsnips, and onions to create the aromatic base. The root vegetables not only sweeten the broth, but also give it an appetizing color.</t>
+  </si>
+  <si>
+    <t>Acasă Rețete Videoclipuri Supe și ciorbe Ciorbă tradițională de Radautea, cremoasă și aromată – rețetă video Ciorbă tradițională de Radautea, cremoasă și aromată – rețetă video JamilaCuisine 21/03/2014 38 35,1KCiorba radauteana: rețetă tradițională, mai gustoasă decât ciorba de măruntaie! Descoperă secretul unei ciorbe cremoase cu pui, smântână și usturoi. Rețetă video Imprimare Pregătire 15 minute Gătire 1 oră Timp total 1 oră 15 minute Categorie Aperitiv Bucătărie românească Porții 8 Calorii 340 kcal Îți place această rețetă? Te rugăm să îi acorzi 5 stele! 4,70 din 1616 voturi Ingrediente ▢ 700 g pui cu oase▢ 300 g smântână▢ 4 gălbenușuri de ou▢ 2-3 linguri de oțet▢ 2 păstârnacuri mici▢ 2 cepe▢ 1 ardei gras▢ 1 morcov mare▢ 1 legătură de pătrunjel▢ 1/2 țelină▢ câteva căței de usturoi▢ frunze de dafin▢ sare▢ piper Valori nutriționale per porție/bucată Calorii: 340 kcal | Carbohidrați: 13 g | Proteine: 20 g | Grăsimi: 23 g | Grăsimi saturate: 9 g | Sodiu: 145 mg | Fibre: 3 g | Zahăr: 5 g | Calciu: 96 mg Supa radauteană este una dintre cele mai îndrăgite rețete românești, perfectă când vrei ceva cremos, gustos și sățios. Se prepară din piept de pui fraged, legume simple, smântână și ouă, iar usturoiul îi conferă acel gust specific care o face irezistibilă. Este un fel de mâncare ușor acrișor, foarte aromat, potrivit pentru întreaga familie, genul de rețetă care iese întotdeauna bine și pe care o veți repeta des. Este o rețetă simplă, explicată pas cu pas, exact așa cum îmi place, fără complicații inutile. Această supă radauteană se prepară din ingrediente simple, ușor de găsit, iar rezultatul este garantat. Se servește fierbinte, cu ardei iute și pâine proaspătă, și este ideală pentru prânz sau cină, mai ales în zilele reci. Rețeta poate fi adaptată și cu legume proaspete de sezon, pentru a adăuga aromă și culoare în farfurie. S-ar putea să vă intereseze: Cozonac cu aluat opărit, cozonac pufos și moale – rețetă video 01/05/2024 Baigli / Beigli cozonac unguresc – rețetă video 10/04/2015 Cozonac cu flori și cremă de ciocolată – rețetă video 02/11/2015 Tort Albă ca Zăpada – rețetă video 06/15/2013Detalii despre rețeta supei RadauteanaCum a fost inventată supa Radauteana și care este povestea ei?Ingrediente esențiale: Ce bucăți de pui să alegem pentru o supă Radauteană consistentă? Secretul unei texturi cremoase: Cum preparăm amestecul de smântână și gălbenușuri de ou? Cum gătim corect legumele și carnea pentru a obține o bază limpede? De ce se folosesc oțetul și usturoiul în supa tradițională Radauteană? Sfaturi pentru rețeta de supă: Cum evităm coagularea smântânii? Supa Radauteană vs. supa grecească de pui: Care sunt principalele diferențe? Cât timp trebuie gătit puiul crescut în libertate pentru a obține o aromă autentică de Bucovina? Greșeli de evitat: De ce supa Radauti poate deveni prea grasă sau prea acră? Servirea și prezentarea: Ce garnituri servim cu acest fel de mâncare din Bucovina? Lucruri importante de reținut Cum a fost inventată supa Radauti și care este povestea ei? Istoria supei Radauti începe în Radauti, la faimosul restaurant Nordic, unde a fost creată pentru prima dată. În 1979, doamna Cornelia Dumitrescu, o bucătăreasă experimentată, a vrut să inventeze ceva nou pentru clienții ei. Așa că a creat o supă similară cu supa de măruntaie, dar folosind pui în loc de vită. Rețeta ei este secretă și dezvăluie publicului doar o parte din ea. Principala diferență între supa de măruntaie și această supă este sursa de proteine, deoarece versiunea Radauti înlocuiește complet măruntaiele de vită cu carne de pasăre. Deși ambele sunt preparate în același mod, această delicatesă este considerată o supă mai ușoară. O altă diferență este utilizarea făinii pentru a îngroșa supa, pe lângă adăugarea de ouă și smântână. Mulți turiști care vizitează restaurantul Nordic din Radauti caută rețeta originală a doamnei Cornelia, mai ales din curiozitate. Vor să vadă cum are gust supa în locul în care a fost inventată. Am decis să nu urmez rețeta originală 100%, ci să vin cu propria mea versiune. Fără a adăuga făină, dar păstrând legumele și adăugând carne cu oase pentru un gust și mai bun. Ingrediente esențiale: Ce părți de pui ar trebui să alegem pentru o supă Radauti bogată? Pentru o rețetă de supă Radauti reușită, alegerea părților de pasăre este foarte importantă. Recomand să folosiți atât pieptul, cât și pulpele, deoarece oasele conferă supei un gust mult mai bogat. În mod ideal, ar trebui să folosiți pui crescut în libertate. Gustul său este mult mai intens decât cel al puiului crescut industrial. Gustul final va fi mult mai intens. Această rețetă necesită aproximativ 700 g de carne. Puteți folosi chiar și carne de curcan dacă doriți o versiune mai consistentă. Important este să folosiți carne proaspătă, de bună calitate. Acest lucru va asigura o bază savuroasă, iar supa va avea o claritate perfectă. Eu folosesc întotdeauna bucăți cu os pentru un plus de aromă. În plus față de carne, pregătiți morcovi, țelină, păstârnac și ceapă pentru a crea baza aromatică. Legumele rădăcinoase nu numai că îndulcesc supa, dar îi conferă și o culoare apetisantă.</t>
+  </si>
+  <si>
+    <t>The texts convey the same content and structure, differing only in minor wording, accents, and formatting, with "ciorbă" vs "supă" and slight spelling variations.</t>
+  </si>
+  <si>
+    <t>Home Recipes Video Desserts Fluffy dumplings with cottage cheese: A childhood delight – video recipe Fluffy doughnuts with cottage cheese: A childhood delight – video recipe JamilaCuisine 10/02/2025 7 19.6K Fluffy doughnuts with sweet cheese, a simple recipe for delicious and aromatic fried doughnuts. Delicious served with sour cream and jam! Video Recipe PrintPreparation 20 minutesCooking 30 minutesCategory DessertRomanian cuisineServes 6 doughnutsCalories 468 kcal Do you like this recipe? Please give it 5 stars!5 from 5 votesIngredients ▢ 500 g sweet cow's cheese▢ 2 eggs▢ 300 g flour▢ 30 g sugar▢ 5 g baking soda▢ 1 tablespoon vanilla extract▢ 1 tablespoon lemon extract▢ a pinch of salt▢ 200 g sour cream▢ 200 g cherry jamNutrition per serving/pieceCalories: 468kcal | Carbohydrates: 71g | Protein: 17g | Fat: 12g | Saturated fat: 5g | Unsaturated fat: 0.01g | Sodium: 856mg | Fiber: 2g | Sugar: 25g | Calcium: 125mg I make this recipe for fluffy cheese dumplings very often for my family. It's the same recipe I've been making for years, and I've refined it so that it turns out perfectly every time. I think I've made this recipe hundreds of times and it has never disappointed me. I've made it for lots of people, for different occasions, and it's always been a success. When I was a child, papanasi were my favorite thing to eat on trips. We would stop at different restaurants and order fried cheese with French fries and papanasi for dessert. It was the menu we never strayed from. That's what most of the children ordered, much to the despair of our teachers, who always told us to choose something else for lunch. We only gave in if it was pizza. This recipe for fluffy papanasi with cottage cheese is perfect whenever we don't know what to make for dessert. In our family, we usually made doughnuts on weekends. My mother would knead a lot of flour to make enough doughnuts to last for several days. Now, we prefer doughnuts because they are much quicker to make and more nutritious. They contain a lot of sweet cheese and you can cook them in an Air Fryer if you don't want to fry them. Even when fried, they are healthier than the store-bought versions. Often, restaurants don't use much cheese, or they are fried in oil that is rarely changed. For this reason, I prefer to make my own desserts at home and very rarely buy eclairs, for example. Otherwise, I prefer to make my own desserts. You may be interested in: Cozonac with boiled dough, fluffy and soft cozonac – video recipe 01/05/2024 Baigli / Beigli Hungarian cozonac – video recipe 10/04/2015 Flower cozonac with chocolate cream – video recipe 11/02/2015 Snow White cake – video recipe 15/06/2013How do we make the fluffiest homemade papanasi? For fluffy papanasi with cottage cheese, it is very important to make the dough properly. Start with cottage cheese that is full-fat and well drained. Do not use cream cheese because you will need a lot of flour to form the dough. The more flour you add, the denser and less fluffy the doughnuts will be. Do not knead the dough too much for the same reason. You will develop too much gluten, and the papanasi will no longer be fluffy. Mix the sweet cheese with the eggs, sugar, and flavorings. I used vanilla extract and lemon extract from JamilaCuisine. These are natural extracts, produced in Romania and of very good quality. They are obtained by maceration and are very aromatic. They do not contain any artificial or chemical flavors. Add the flour and baking soda to this mixture of fluffy dumplings with cottage cheese. Knead just enough to incorporate the flour and then stop. Divide the dough into 6 equal pieces, and take a little from each piece for the ball on top. Then shape the doughnut as shown in the video. The doughnuts must be fried in oil, over medium to low heat for about 5-6 minutes. This way, they will be well cooked on the inside. To serve them, you will need sour cream and jam. The sour cream should be full-fat, and the jam should be sweet and sour. I like to use cherry jam or blueberry jam. Both go very well with the doughnuts. Before adding the jam and sour cream, I recommend letting the dumplings cool for 5-10 minutes, and they will be perfect! Fluffy and tasty! Bon appetit! Preparation method You can find the instructions and preparation method for the fluffy dumpling recipe in the video below! Watch it carefully to make the perfect recipe! Tags papanasipapanasi cu branza Recipes for all tastes Homemade plum jam, aromatic and tasty – video recipe Homemade pasta with chicken and white sauce – video recipe Tomato soup with roasted garlic – video recipe Raspberry cheesecake made at Oster – video recipe &lt;img alt='guest' src='https://secure. gravatar.com/avatar/9f1d847f0425ad0a0c189fb3ff1c600de9d774a2c7ef</t>
+  </si>
+  <si>
+    <t>Acasă Rețete Video Deserturi Gogoși pufoase cu brânză de vaci: o delicie din copilărie – rețetă video Gogoși pufoase cu brânză de vaci: o delicie din copilărie – rețetă video JamilaCuisine 10/02/2025 7 19,6K Gogoși pufoase cu brânză dulce, o rețetă simplă pentru gogoși prăjite delicioase și aromate. Delicioase servite cu smântână și gem! Rețetă video Tipărește Pregătire 20 minute Gătire 30 minute Categorie Desert Bucătărie românească Porții 6 gogoși Calorii 468 kcal Îți place această rețetă? Te rugăm să îi acorzi 5 stele! 5 din 5 voturi Ingrediente ▢ 500 g brânză dulce de vacă▢ 2 ouă▢ 300 g făină▢ 30 g zahăr▢ 5 g bicarbonat de sodiu▢ 1 lingură extract de vanilie▢ 1 lingură extract de lămâie▢ un vârf de sare▢ 200 g smântână acră▢ 200 g gem de cireșe Valori nutriționale per porție/bucată Calorii: 468 kcal | Carbohidrați: 71 g | Proteine: 17 g | Grăsimi: 12 g | Grăsimi saturate: 5 g | Grăsimi nesaturate: 0,01 g | Sodiu: 856 mg | Fibre: 2 g | Zahăr: 25 g | Calciu: 125 mg Prepar foarte des această rețetă de găluște pufoase cu brânză pentru familia mea. Este aceeași rețetă pe care o prepar de ani de zile și pe care am perfecționat-o astfel încât să iasă perfect de fiecare dată. Cred că am preparat această rețetă de sute de ori și nu m-a dezamăgit niciodată. Am preparat-o pentru multe persoane, pentru diferite ocazii, și a fost întotdeauna un succes. Când eram copil, papanasi erau mâncarea mea preferată în călătorii. Opream la diferite restaurante și comandam brânză prăjită cu cartofi prăjiți și papanasi la desert. Era meniul de la care nu ne abăteam niciodată. Asta comandau majoritatea copiilor, spre disperarea profesorilor noștri, care ne spuneau mereu să alegem altceva pentru prânz. Cedeam doar dacă era pizza. Această rețetă de papanasi pufoși cu brânză de vaci este perfectă ori de câte ori nu știm ce să preparăm la desert. În familia noastră, de obicei făceam gogoși în weekend. Mama frământa multă făină pentru a face gogoși suficiente pentru câteva zile. Acum, preferăm gogoșile pentru că sunt mult mai rapide de preparat și mai nutritive. Conțin multă brânză dulce și le poți găti într-un Air Fryer dacă nu vrei să le prăjești. Chiar și prăjite, sunt mai sănătoase decât cele cumpărate din magazin. Adesea, restaurantele nu folosesc multă brânză sau sunt prăjite în ulei care este schimbat rar. Din acest motiv, prefer să-mi prepar propriile deserturi acasă și foarte rar cumpăr, de exemplu, eclere. În rest, prefer să-mi prepar propriile deserturi. S-ar putea să vă intereseze: Cozonac cu aluat fiert, cozonac pufos și moale – rețetă video 01/05/2024 Baigli / Beigli cozonac unguresc – rețetă video 10/04/2015 Cozonac cu flori și cremă de ciocolată – rețetă video 11/02/2015 Tort Albă ca Zăpada – rețetă video 15/06/2013Cum preparăm cei mai pufoși papanasi de casă? Pentru papanasi pufoși cu brânză de vaci, este foarte important să preparăm aluatul corect. Începeți cu brânză de vaci grasă și bine scursă. Nu folosiți brânză cremă, deoarece veți avea nevoie de multă făină pentru a forma aluatul. Cu cât adăugați mai multă făină, cu atât gogoșile vor fi mai dense și mai puțin pufoase. Din același motiv, nu frământați aluatul prea mult. Veți dezvolta prea mult gluten, iar papanasi nu vor mai fi pufoși. Amestecați brânza dulce cu ouăle, zahărul și aromele. Eu am folosit extract de vanilie și extract de lămâie de la JamilaCuisine. Acestea sunt extracte naturale, produse în România și de foarte bună calitate. Sunt obținute prin macerare și sunt foarte aromate. Nu conțin arome artificiale sau chimice. Adăugați făina și bicarbonatul de sodiu la acest amestec de găluște pufoase cu brânză de vaci. Frământați doar cât să încorporați făina și apoi opriți-vă. Împărțiți aluatul în 6 bucăți egale și luați puțin din fiecare bucată pentru biluța de deasupra. Apoi formați gogoșile așa cum se arată în videoclip. Gogoșile trebuie prăjite în ulei, la foc mediu spre mic, timp de aproximativ 5-6 minute. Astfel, vor fi bine coapte în interior. Pentru a le servi, veți avea nevoie de smântână și gem. Smântâna trebuie să fie grasă, iar gemul trebuie să fie dulce-acrișor. Mie îmi place să folosesc gem de cireșe sau gem de afine. Ambele se potrivesc foarte bine cu gogoșile. Înainte de a adăuga gemul și smântâna, vă recomand să lăsați găluștele să se răcească 5-10 minute, și vor fi perfecte! Pufoase și gustoase! Poftă bună! Mod de preparare Puteți găsi instrucțiunile și modul de preparare pentru rețeta de găluște pufoase în videoclipul de mai jos! Urmăriți-l cu atenție pentru a realiza rețeta perfectă! Etichete papanasipapanasi cu branza Rețete pentru toate gusturile Gem de prune de casă, aromat și gustos – rețetă video Paste de casă cu pui și sos alb – rețetă video Supă de roșii cu usturoi prăjit – rețetă video Cheesecake cu zmeură făcut la Oster – rețetă video &lt;img alt=«guest» src='https://secure. gravatar.com/avatar/9f1d847f0425ad0a0c189fb3ff1c600de9d774a2c7ef</t>
+  </si>
+  <si>
+    <t>The texts describe the exact same recipe, ingredients, instructions, and personal anecdotes; differences are mainly in minor word choices and terminology (e.g., “papanasi” vs. “gogoși”), not in meaning.</t>
+  </si>
+  <si>
+    <t>Home Recipes Video Desserts Cozonac with boiled dough, large and fluffy cozonac – video recipe Cozonac with boiled dough, large and fluffy cozonac – video recipe JamilaCuisine 01/05/2024 306 43.9KCozonac with boiled dough, a great recipe for a huge, very aromatic, fluffy cozonac with lots of filling. Cut into slices and keep fresh. Video Recipe PrintPreparation 1 hourCooking 1 hourTotal time 2 hoursCategory DessertRomanian cuisineServes 2 cozonac Do you like this recipe? Please give it 5 stars! 4.97 from 101 votes Ingredients For the cozonac:▢ 1 kg flour▢ 300 g sugar▢ 400 ml milk▢ 8 egg yolks▢ 50 g fresh yeast▢ 1 tablespoon vanilla paste▢ 150 g butter▢ 100 g sour cream▢ 50 ml oil▢ zest of 1 lemon▢ 1 tablespoon lemon essence▢ a pinch of salt For the scalded dough:▢ 200 ml milk▢ 100 g flour For the filling:▢ 8 egg whites▢ 350 g ground walnuts▢ 200 g sugar▢ 50 g cocoa▢ 150 g raisins▢ 300 g Turkish delight The recipe for cozonac with scalded dough is the best recipe I have tried so far to make the cozonac of my childhood, large, super fluffy, and very tasty. In our family, my mother used to make the cozonac. She learned the recipe from an elderly neighbor who was very skilled and made sensational cozonac. She was the one who came to my mother's house and taught her step by step how to knead the dough. She also showed her how to braid it and how to bake it. My mother makes cozonac thanks to this woman, and I learned from my mother. Sometimes my mother would boil a small part of the flour, and then the cozonac seemed to turn out even better. They rose better, were larger, and much fluffier. In addition, they stayed fresh and soft for days, which is essential for cozonac. I love this recipe for cozonac with scalded dough because it's not difficult to make, and I promise you'll get huge, super fluffy, and very tasty cozonac. Of course, the regular cozonac recipe is good too, don't get me wrong, but this one seems even better. Plus, this dough can also be used in the pasca recipe with cozonac dough, so it's great for Easter too. Over time, I've made many cozonac recipes, with different shapes and different fillings. However, if I had to recommend one, it would definitely be this one. For those who can't or don't want to knead, the next recommendation would be the no-knead cozonac recipe. Another super simple recipe that turns out great every time. The only drawback is that it takes longer because it has to sit in the fridge overnight. You may be interested in: Cozonac with scalded dough, fluffy and soft cozonac – video recipe 01/05/2024 Baigli / Beigli Hungarian cozonac – video recipe 10/04/2015 Flower cozonac with chocolate cream – video recipe 11/02/2015 Snow White cake – video recipe 15/06/2013How do we make the fluffiest and tastiest cozonac with scalded dough?This cozonac with scalded dough is not as difficult to make as you might think. We start by scalding a small amount of flour with boiling milk. The ingredients for this scalding process are weighed separately from the ingredients for the dough. Then, keep in mind that all ingredients must be at room temperature, except for the milk. It should be warm enough not to burn your finger. The flour should have as high a protein content as possible, and if you can buy Manitoba flour, even better. If not, go to the supermarket and choose the flour with the highest amount of protein per 100g. The yeast can be fresh or dry. If you use fresh yeast, you will need 50g, if you use dry yeast, 20g. Both options are good, it just depends on what you can find. To obtain a very fluffy cozonac with scalded dough, you must knead the dough very well. I chose the easiest option and used a mixer, but you can just as easily knead it by hand. It will take longer and be more difficult, but it will turn out just as well. I made the filling in the classic way, with egg whites, but I beat them until stiff with the sugar. Only then did I add the ground walnuts and cocoa. I also added Turkish delight and raisins to this filling, but you can add whatever you like. You can add any fillings you like, depending on what you have on hand or what you like. Last year I made a cozonac with pistachio cream that was excellent. Bake the cozonac without ventilation at 155-160 degrees for about an hour. If you use ventilation, lower the temperature by 15-20 degrees so that it doesn't remain raw. Preparation method You can find the instructions and preparation method for the cozonac recipe with boiled dough in the video below! Watch it carefully to make a perfect recipe! Tags chocolate cozonac cozonac recipe Recipes for all tastes Chicken breast in roasted pepper sauce – video recipe Summer menu: 3 delicious recipes with Romanian tomatoes (VIDEO) Roasted pepper paste with mustard and honey – video recipe Step-by-step aioli sauce – video recipe &lt;img alt='guest' src='https://secure.gravatar.com/avatar/280e190a8f4f62b651c83095b6357</t>
+  </si>
+  <si>
+    <t>Acasă Rețete Video Deserturi Cozonac cu aluat fiert, cozonac mare și pufos – rețetă video Cozonac cu aluat fiert, cozonac mare și pufos – rețetă video JamilaCuisine 01/05/2024 306 43,9KCozonac cu aluat fiert, o rețetă excelentă pentru un cozonac mare, foarte aromat, pufos și cu multă umplutură. Se taie felii și se păstrează proaspăt. Rețetă video Imprimare Pregătire 1 oră Gătire 1 oră Timp total 2 ore Categorie Desert Bucătărie românească Porții 2 cozonac Îți place această rețetă? Te rugăm să îi acorzi 5 stele! 4,97 din 101 voturi Ingrediente Pentru cozonac:▢ 1 kg făină▢ 300 g zahăr▢ 400 ml lapte▢ 8 gălbenușuri de ou▢ 50 g drojdie proaspătă▢ 1 lingură pastă de vanilie▢ 150 g unt▢ 100 g smântână acră▢ 50 ml ulei▢ coaja de la 1 lămâie▢ 1 lingură esență de lămâie▢ un vârf de sare Pentru aluatul opărit:▢ 200 ml lapte▢ 100 g făină Pentru umplutură:▢ 8 albușuri de ou▢ 350 g nuci măcinate▢ 200 g zahăr▢ 50 g cacao▢ 150 g stafide▢ 300 g delicii turcești Rețeta de cozonac cu aluat fiert este cea mai bună rețetă pe care am încercat-o până acum pentru a prepara cozonacul din copilăria mea, mare, foarte pufos și foarte gustos. În familia noastră, mama era cea care făcea cozonacul. A învățat rețeta de la o vecină în vârstă, care era foarte pricepută și făcea un cozonac senzațional. Ea era cea care venea la mama acasă și o învăța pas cu pas cum să frământe aluatul. I-a arătat și cum să-l împletească și cum să-l coacă. Mama face cozonac datorită acestei femei, iar eu am învățat de la mama. Uneori, mama fierbea o mică parte din făină, iar cozonacul părea să iasă și mai bun. Creștea mai bine, era mai mare și mult mai pufos. În plus, rămânea proaspăt și moale zile întregi, ceea ce este esențial pentru cozonac. Îmi place această rețetă de cozonac cu aluat opărit pentru că nu este dificil de preparat și vă promit că veți obține un cozonac uriaș, foarte pufos și foarte gustos. Desigur, rețeta obișnuită de cozonac este și ea bună, nu mă înțelegeți greșit, dar aceasta pare și mai bună. În plus, acest aluat poate fi folosit și în rețeta de pască cu aluat de cozonac, așa că este excelent și pentru Paște. De-a lungul timpului, am preparat multe rețete de cozonac, cu forme diferite și umpluturi diferite. Cu toate acestea, dacă ar trebui să recomand una, ar fi cu siguranță aceasta. Pentru cei care nu pot sau nu vor să frământe, următoarea recomandare ar fi rețeta de cozonac fără frământare. O altă rețetă super simplă, care iese excelent de fiecare dată. Singurul dezavantaj este că durează mai mult, deoarece trebuie să stea peste noapte la frigider. S-ar putea să vă intereseze: Cozonac cu aluat opărit, cozonac pufos și moale – rețetă video 01/05/2024 Baigli / Beigli cozonac unguresc – rețetă video 10/04/2015 Cozonac cu flori și cremă de ciocolată – rețetă video 11/02/2015 Tort Albă ca Zăpada – rețetă video 15/06/2013Cum preparăm cel mai pufos și gustos cozonac cu aluat opărit? Acest cozonac cu aluat fiert nu este atât de dificil de preparat pe cât ai putea crede. Începem prin a fierbe o cantitate mică de făină cu lapte clocotit. Ingredientele pentru acest proces de fierbere sunt cântărite separat de ingredientele pentru aluat. Apoi, reține că toate ingredientele trebuie să fie la temperatura camerei, cu excepția laptelui. Acesta trebuie să fie suficient de cald încât să nu-ți ardă degetele. Făina trebuie să aibă un conținut de proteine cât mai ridicat posibil, iar dacă puteți cumpăra făină Manitoba, cu atât mai bine. Dacă nu, mergeți la supermarket și alegeți făina cu cea mai mare cantitate de proteine la 100 g. Drojdia poate fi proaspătă sau uscată. Dacă folosiți drojdie proaspătă, veți avea nevoie de 50 g, iar dacă folosiți drojdie uscată, de 20 g. Ambele opțiuni sunt bune, depinde doar de ceea ce găsiți. Pentru a obține un cozonac foarte pufos cu aluat opărit, trebuie să frământați foarte bine aluatul. Eu am ales varianta cea mai ușoară și am folosit un mixer, dar îl puteți frământa la fel de ușor și cu mâna. Va dura mai mult și va fi mai dificil, dar va ieși la fel de bine. Am făcut umplutura în mod clasic, cu albușuri de ou, dar le-am bătut până s-au întărit cu zahărul. Abia apoi am adăugat nucile măcinate și cacao. Am adăugat și delicii turcești și stafide la această umplutură, dar puteți adăuga orice doriți. Puteți adăuga orice umplutură doriți, în funcție de ce aveți la îndemână sau de ce vă place. Anul trecut am făcut un cozonac cu cremă de fistic care a fost excelent. Coaceți cozonacul fără ventilație la 155-160 de grade timp de aproximativ o oră. Dacă folosiți ventilarea, reduceți temperatura cu 15-20 de grade, pentru a nu rămâne crud. Metoda de preparare Puteți găsi instrucțiunile și metoda de preparare pentru rețeta de cozonac cu aluat fiert în videoclipul de mai jos! Urmăriți-l cu atenție pentru a obține o rețetă perfectă! Etichete cozonac cu ciocolată rețetă de cozonac Rețete pentru toate gusturile Piept de pui în sos de ardei copți – rețetă video Meniu de vară: 3 rețete delicioase cu roșii românești (VIDEO) Pastă de ardei copți cu muștar și miere – rețetă video Sos aioli pas cu pas – rețetă video &lt;img alt=«guest» src='https://secure.gravatar.com/avatar/280e190a8f4f62b651c83095b6357</t>
+  </si>
+  <si>
+    <t>The texts are nearly identical in meaning, structure, and content; the main differences are minor wording changes (e.g., “opărit” vs “fiert”, “delicii turcești” vs “rahat”) with no significant semantic shift.</t>
+  </si>
+  <si>
+    <t>Home Recipes VideoDishes Cabbage à la Cluj or scattered stuffed cabbage rolls – videoCabbage à la Cluj or scattered stuffed cabbage rolls – video JamilaCuisine 11/30/2022 9 16.1K Cabbage à la Cluj, a wonderful recipe that tastes like stuffed cabbage rolls, but is much simpler and quicker to prepare. It is very tasty and aromatic. Recipe Video PrintPreparation 30 minutesCooking 2 hoursTotal time 2 hours 30 minutesCategory Main courseCuisine RomanianServes 9 portionsCalories 413 kcal Do you like this recipe? Please give it 5 stars!4.60 from 25 votesIngredients ▢ 1 kg minced meat▢ 2 kg sauerkraut▢ 700 g chopped onion▢ 1 tablespoon sweet paprika▢ a few bay leaves▢ 150 g tomato juice▢ 70 ml Spornic Omega 9 oil▢ 200 g rice▢ 1 bunch parsley ▢ 150 g sour cream▢ salt▢ pepperNutrition per serving/pieceCalories: 413kcal | Carbohydrates: 37g | Protein: 29g | Fat: 17g | Saturated fat: 5g | Unsaturated fat: 0.4g | Sodium: 1771mg | Fiber: 9g | Sugar: 9g | Calcium: 129mg The recipe for cabbage à la Cluj is one that is made specifically in the Transylvania region. It is a very old recipe, first recorded in a cookbook in 1695. Since I have that book, obviously reissued, I consulted the recipe myself. I can tell you that I was slightly disappointed because that recipe has nothing to do with what is now prepared as Cluj-style cabbage. The original recipe consists of cabbage that was boiled in chicken or goose soup and then baked in layers. It had no minced meat, no rice, no spices. Over time, the recipe evolved and, of course, changed. I followed Silvia Jurcovan's recipe with a few personal adaptations. What you need to know about varza a la Cluj is that all the ingredients are cooked before being placed in the oven. We start with the cabbage, which can be pickled or fresh. Both options are equally good, but the pickled cabbage version is the most popular. I cut the cabbage into thin strips and sautéed it in a little oil. I used Spornic Omega 9, a high-quality high-oleic oil. It has a high amount of oleic acid, which is beneficial in nutrition, and can be used in any kind of dish. The cabbage is sautéed well until it softens and loses some of its volume. If you use fresh cabbage, proceed in the same way, but rub the cabbage with a little salt before sautéing it. If you want it to be sour, add a little vinegar. You may be interested in: Cozonac with scalded dough, fluffy and soft cozonac – video recipe 01/05/2024 Baigli / Beigli Hungarian cozonac – video recipe 10/04/2015 Flower cozonac with chocolate cream – video recipe 11/02/2015 Snow White cake – video recipe 15/06/2013 Cluj-style cabbage or scattered cabbage rolls, a tasty and aromatic dish. We continue the Cluj-style cabbage recipe with minced meat, which also needs to be cooked beforehand. I sautéed it well with onion until it browned a little. I used ground beef, but you can use any kind of meat. Poultry or even pork. Make sure it's not too fatty. I then moved on to the rice, which I cooked until it was about 90% done. I used short-grain rice and cooked it like pasta in plenty of water, but in cold water. It will be ready in about 20 minutes. Taste it anyway to make sure it's ready and drain the water. You will then need to mix it with the cooked minced meat. You can use any type of rice you like, even long-grain or basmati. The last part of the Cluj-style cabbage recipe is assembling it in the baking dish. Place a third of the cabbage at the bottom, then half of the meat, then more cabbage, then the rest of the meat, and finish with cabbage. Top with a mixture of sour cream and tomato juice. Usually, only sour cream is used, but I wanted to add a little tomato juice for extra flavor and color. You can also add tomatoes to the meat mixture or even to the cabbage. It tastes like stuffed cabbage rolls, but it's much easier to prepare and takes less time to cook. Try my recipe for Moldovan meatballs for another very tasty and flavorful traditional recipe. Preparation instructions and preparation method for the Cluj-style cabbage recipe can be found in the video below! Watch it carefully to make the perfect recipe! Tags minced meat stuffed cabbage sauerkraut Recipes for all tastes Shrimp in citrus sauce – video recipe Hot peppers in vinegar for winter – video recipe Spicy KFC wings – video recipe Mediterranean-style chicken roll – video recipe &lt;img alt='guest' src='https://secure. gravatar.com/avatar/e3cb5a50a92e8fa8a1c0c89727553a3bfa473947551300586361148ccca83ac7?s=56&amp;#038; d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/e3cb5a50a92e8fa8a1c0c89727553a3bfa473947551300586361148ccca83ac7?s=112&amp;# 038;d=mm&amp;#038;r=g 2x' class='avatar avatar-56 photo' height='56' width='56' decoding='async'/&gt; Label Rate this recipe Rate this recipe Name* Email* Post comment &lt;img alt='guest' src='https://secure.grav</t>
+  </si>
+  <si>
+    <t>Acasă Rețete VideoMâncăruri Varza à la Cluj sau sarmale împrăștiate – videoVarza à la Cluj sau sarmale împrăștiate – video JamilaBucătărie 30.11.2022 9 16,1K Varza à la Cluj, o rețetă minunată care are gustul sarmalelor, dar este mult mai simplă și mai rapidă de preparat. Este foarte gustoasă și aromată. Rețetă Video Imprimare Pregătire 30 minute Gătire 2 ore Timp total 2 ore 30 minute Categorie Fel principal Bucătărie Română Porții 9 porții Calorii 413 kcal Îți place această rețetă? Te rugăm să îi acorzi 5 stele! 4,60 din 25 voturi Ingrediente ▢ 1 kg carne tocată▢ 2 kg varză murată▢ 700 g ceapă tocată▢ 1 lingură boia dulce▢ câteva frunze de dafin▢ 150 g suc de roșii▢ 70 ml ulei Spornic Omega 9▢ 200 g orez▢ 1 legătură pătrunjel ▢ 150 g smântână acră▢ sare▢ piper Valori nutriționale per porție/bucată Calorii: 413 kcal | Carbohidrați: 37 g | Proteine: 29 g | Grăsimi: 17 g | Grăsimi saturate: 5 g | Grăsimi nesaturate: 0,4 g | Sodiu: 1771 mg | Fibre: 9 g | Zahăr: 9 g | Calciu: 129 mg Rețeta de varză à la Cluj este una specifică regiunii Transilvaniei. Este o rețetă foarte veche, menționată pentru prima dată într-o carte de bucate din 1695. Deoarece am acea carte, evident reeditată, am consultat eu însămi rețeta. Pot să vă spun că am fost ușor dezamăgită, deoarece rețeta respectivă nu are nimic de-a face cu ceea ce se prepară astăzi ca varză à la Cluj. Rețeta originală constă în varză fiartă în supă de pui sau de gâscă și apoi coaptă în straturi. Nu conținea carne tocată, orez sau condimente. De-a lungul timpului, rețeta a evoluat și, bineînțeles, s-a schimbat. Am urmat rețeta Silviei Jurcovan, cu câteva adaptări personale. Ce trebuie să știți despre varza à la Cluj este că toate ingredientele sunt gătite înainte de a fi introduse în cuptor. Începem cu varza, care poate fi murată sau proaspătă. Ambele variante sunt la fel de bune, dar cea cu varză murată este cea mai populară. Am tăiat varza în fâșii subțiri și am călit-o în puțin ulei. Am folosit Spornic Omega 9, un ulei de înaltă calitate, cu conținut ridicat de acid oleic. Acesta are un conținut ridicat de acid oleic, care este benefic în alimentație și poate fi folosit în orice fel de preparat. Varza se călește bine până se înmoaie și își pierde o parte din volum. Dacă folosiți varză proaspătă, procedați în același mod, dar frecați varza cu puțină sare înainte de a o căli. Dacă doriți să fie acrișoară, adăugați puțin oțet. S-ar putea să vă intereseze: Cozonac cu aluat opărit, cozonac pufos și moale – rețetă video 01/05/2024 Baigli / Beigli cozonac unguresc – rețetă video 10/04/2015 Cozonac cu flori și cremă de ciocolată – rețetă video 11/02/2015 Tort Albă ca Zăpada – rețetă video 15/06/2013 Varza clujenească sau sarmale împrăștiate, un fel de mâncare gustos și aromat. Continuăm rețeta de varză clujenească cu carne tocată, care trebuie, de asemenea, gătită în prealabil. Am călit-o bine cu ceapă până s-a rumenit puțin. Eu am folosit carne de vită tocată, dar puteți folosi orice fel de carne. Păsări sau chiar porc. Aveți grijă să nu fie prea grasă. Am trecut apoi la orez, pe care l-am fiert până a fost gata în proporție de aproximativ 90%. Am folosit orez cu bob scurt și l-am fiert ca pastele, în apă abundentă, dar rece. Va fi gata în aproximativ 20 de minute. Gustați-l oricum pentru a vă asigura că este gata și scurgeți apa. Apoi va trebui să-l amestecați cu carnea tocată gătită. Puteți folosi orice tip de orez doriți, chiar și orez cu bob lung sau basmati. Ultima parte a rețetei de varză în stil clujian este asamblarea acesteia în vasul de copt. Puneți o treime din varză la fund, apoi jumătate din carne, apoi mai multă varză, apoi restul de carne și terminați cu varză. Acoperiți cu un amestec de smântână și suc de roșii. De obicei, se folosește doar smântână, dar am vrut să adaug puțin suc de roșii pentru un plus de aromă și culoare. Puteți adăuga și roșii în amestecul de carne sau chiar în varză. Are gustul rulourilor de varză umplute, dar este mult mai ușor de preparat și durează mai puțin timp să se gătească. Încercați rețeta mea de chiftele moldovenești pentru o altă rețetă tradițională foarte gustoasă și aromată. Instrucțiunile de preparare și metoda de preparare pentru rețeta de varză în stil clujesc pot fi găsite în videoclipul de mai jos! Urmăriți-l cu atenție pentru a realiza rețeta perfectă! Etichete carne tocată varză umplută varză murată Rețete pentru toate gusturile Creveți în sos de citrice – rețetă video Ardei iuți în oțet pentru iarnă – rețetă video Aripioare KFC picante – rețetă video Rulou de pui în stil mediteranean – rețetă video &lt;img alt=«guest» src='https://secure. gravatar.com/avatar/e3cb5a50a92e8fa8a1c0c89727553a3bfa473947551300586361148ccca83ac7?s=56&amp;#038; d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/e3cb5a50a92e8fa8a1c0c89727553a3bfa473947551300586361148ccca83ac7?s=112&amp;# 038;d=mm&amp;#038;r=g 2x' class=«avatar avatar-56 photo» height=«56» width=«56» decoding=«async»/&gt; Etichetă Evaluează această rețetă Evaluează această rețetă Nume* E-mail* Postează comentariu &lt;img alt=«guest» src='https://secure.grav</t>
+  </si>
+  <si>
+    <t>Both texts describe the same recipe in nearly identical detail; differences are mostly minor spelling, diacritics, and formatting.</t>
+  </si>
+  <si>
+    <t>Home Recipes VideoDishes Beef and duck stuffed cabbage rolls – video recipeBeef and duck stuffed cabbage rolls – video recipe JamilaCuisine 01/12/2017 0 3.8KThis recipe for beef and duck stuffed cabbage rolls is perfect for those who prefer tasty but not fatty stuffed cabbage rolls. Video Recipe PrintPreparation 40 minutesCooking 2 hoursTotal time 2 hours 40 minutesCategory Main courseCuisine RomanianServes 50 piecesCalories 68 kcal Do you like this recipe? Please give it 5 stars!4.13 from 48 votesIngredients ▢ 500 g minced beef▢ 500 g minced duck breast▢ leaves from a sauerkraut cabbage▢ Cosmin thyme▢ Cosmin sweet paprika▢ 1 bunch of parsley▢ 200 g rice▢ 350 g tomato juice▢ 1 tablespoon tomato paste▢ 3-4 tablespoons oil▢ 1/4 finely chopped sauerkraut▢ 2 large finely chopped onions▢ Cosmin bay leaves▢ Cosmin peppercorns▢ salt▢ ground pepperNutrition per serving/pieceCalories: 68kcal | Carbohydrates: 5g | Protein: 4g | Fat: 3g | Saturated fat: 1g | Sodium: 182mg | Fiber: 1g | Sugar: 1g | Calcium: 13mg This recipe for beef and duck stuffed cabbage rolls is wonderful for those who prefer tasty but not fatty stuffed cabbage rolls. It is also great for those who, for various reasons, do not eat pork. I especially like these stuffed cabbage rolls because they are delicious, juicy, and turn out perfectly every time. Stuffed cabbage rolls remind me of the holidays. My grandmother makes the best stuffed cabbage rolls in the world. I still remember the enamel pot full of fist-sized cabbage rolls slowly simmering on the stove. Everyone loved her stuffed cabbage rolls, even my father, her son-in-law, who also makes some great stuffed cabbage rolls. Since I got married and my father started having health problems, I gave up making pork sarmale. I looked for alternatives and at first I made them strictly with beef. Then I started combining it with turkey, and now the best sarmale are made with beef and duck. Duck breast is wonderful in stuffed cabbage rolls because it is tasty and has enough fat to make the rolls flavorful. People shy away from beef stuffed cabbage rolls because they think they are dry, but when made well, this is not the case at all. Everyone who has eaten my stuffed cabbage rolls has been extremely pleased and has asked for seconds. You may be interested in: Cozonac with boiled dough, fluffy and soft cozonac – video recipe 01/05/2024 Baigli / Beigli Hungarian cozonac – video recipe 10/04/2015 Flower cozonac with chocolate cream – video recipe 11/02/2015 Snow White cake – video recipe 15/06/2013The secret to these beef and duck rolls is to choose lean beef and mince the duck breast with the skin on. There will be enough fat to make the rolls tasty, savory, and a delight for everyone at the table. In addition to the meat, I added paprika, thyme, bay leaves, and peppercorns, all from Cosmin. The spices add extra flavor and are indispensable for any good stuffed cabbage roll recipe. I also added green parsley, and for even more flavor, I sautéed the onion a little beforehand. However, this is optional. You can cook these beef and duck stuffed cabbage rolls either on the stove or in the oven. I prefer to bake them because they cook better and taste better to me. If you have a clay pot, even better. You will get some wonderful stuffed cabbage rolls that go great with tacos and cornbread or layered polenta. If you boil them on the stove, be sure to check the water level constantly and rotate the pot so that the stuffed cabbage rolls don't stick. When they are ready, you can serve them with sour cream and hot peppers and, above all, with a big appetite! They are extraordinary! Preparation method You can find the instructions and preparation method for the beef stuffed cabbage rolls recipe in the video below! Watch it carefully to make the perfect recipe! Tags ratasarmalevita Recipes for all tastes Perfect green mint syrup for lemonade – video recipe Moroccan soup / Moroccan harira Langosi with salty cheese, the fluffy delight of childhood – video recipe Fluffy homemade croissants – video recipe &lt;img alt='guest' src='https://secure. gravatar.com/avatar/205c08a983a9d94f89d4c14cb7c74841d547114f07fd416ac5787c27f0df8d79?s=56&amp;#038; d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/205c08a983a9d94f89d4c14cb7c74841d547114f07fd416ac5787c27f0df8d79?s=112&amp; #038;d=mm&amp;#038;r=g 2x' class='avatar avatar-56 photo' height='56' width='56' decoding='async'/&gt; Label Rate this recipe Rate this recipe Name* Email* Post comment &lt;img alt='guest' src='https://secure.gravatar.com/avatar/0458f58f4f88f03e9645a736999791993de5b43130acec8c5f644b4c24dfb6bc?s=56&amp; d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/0458f58f4f88f03e9645a736999791993de5b43130acec8c5f644b4c24dfb6bc?s=112&amp;# 038;d=mm&amp;#038;r=g 2x' class='avatar avatar-56 photo' height='56' width='56' decoding='async'/&gt; Label Rate this recipe Rate this recipe Name* Email* Post comment</t>
+  </si>
+  <si>
+    <t>Acasă Rețete VideoMâncăruri Sarmale cu carne de vită și rață – rețetă videoSarmale cu carne de vită și rață – rețetă video JamilaCuisine 01/12/2017 0 3,8KAceastă rețetă de sarmale cu carne de vită și rață este perfectă pentru cei care preferă sarmale gustoase, dar nu grase. Rețetă video Imprimare Pregătire 40 minute Gătire 2 ore Timp total 2 ore 40 minute Categorie Fel principal Bucătărie Română Porții 50 bucăți Calorii 68 kcal Îți place această rețetă? Vă rugăm să îi acordați 5 stele! 4,13 din 48 voturi Ingrediente ▢ 500 g carne de vită tocată ▢ 500 g piept de rață tocat ▢ frunze de varză murată ▢ Cosmin cimbru ▢ Cosmin boia dulce ▢ 1 legătură de pătrunjel ▢ 200 g orez ▢ 350 g suc de roșii ▢ 1 lingură de pastă de roșii▢ 3-4 linguri de ulei▢ 1/4 varză murată tocată mărunt▢ 2 cepe mari tocate mărunt▢ Frunze de dafin Cosmin▢ Boabe de piper Cosmin▢ Sare▢ Piper măcinat Valori nutriționale per porție/bucată Calorii: 68 kcal | Carbohidrați: 5 g | Proteine: 4 g | Grăsimi: 3 g | Grăsimi saturate: 1 g | Sodiu: 182 mg | Fibre: 1 g | Zahăr: 1 g | Calciu: 13 mg Această rețetă de sarmale cu carne de vită și rață este minunată pentru cei care preferă sarmalele gustoase, dar nu grase. Este, de asemenea, excelentă pentru cei care, din diverse motive, nu mănâncă carne de porc. Îmi plac în special aceste rulouri de varză umplute pentru că sunt delicioase, suculente și ies perfect de fiecare dată. Rulourile de varză umplute îmi amintesc de sărbători. Bunica mea face cele mai bune rulouri de varză umplute din lume. Îmi amintesc încă oala emailată plină cu rulouri de varză de mărimea pumnului, care fierbeau încet pe aragaz. Toată lumea iubea rulourile ei de varză umplute, chiar și tatăl meu, ginerele ei, care face și el niște rulouri de varză umplute excelente. De când m-am căsătorit și tatăl meu a început să aibă probleme de sănătate, am renunțat să mai fac sarmale cu carne de porc. Am căutat alternative și, la început, le-am făcut strict cu carne de vită. Apoi am început să o combin cu carne de curcan, iar acum cele mai bune sarmale sunt făcute cu carne de vită și rață. Pieptul de rață este minunat în sarmale, deoarece este gustos și are suficientă grăsime pentru a da savoare sarmalelor. Oamenii evită sarmalele cu carne de vită pentru că cred că sunt uscate, dar când sunt preparate bine, nu este deloc așa. Toți cei care au mâncat sarmalele mele au fost extrem de mulțumiți și au cerut să mai primească. S-ar putea să vă intereseze: Cozonac cu aluat fiert, cozonac pufos și moale – rețetă video 01/05/2024 Baigli / Beigli cozonac unguresc – rețetă video 10/04/2015 Cozonac cu flori și cremă de ciocolată – rețetă video 11/02/2015 Tort Albă ca Zăpada – rețetă video 15/06/2013 Secretul acestor rulouri cu carne de vită și rață este să alegeți carne de vită slabă și să tocați pieptul de rață cu pielea. Va fi suficientă grăsime pentru a face rulourile gustoase, savuroase și o încântare pentru toți cei de la masă. În plus față de carne, am adăugat paprika, cimbru, frunze de dafin și boabe de piper, toate de la Cosmin. Condimentele adaugă un plus de aromă și sunt indispensabile pentru orice rețetă bună de rulouri de varză umplute. Am adăugat și pătrunjel verde, iar pentru și mai multă aromă, am călit puțin ceapa în prealabil. Totuși, acest lucru este opțional. Puteți găti aceste rulouri de varză umplute cu carne de vită și rață fie pe aragaz, fie în cuptor. Eu prefer să le coc, deoarece se gătesc mai bine și au un gust mai bun pentru mine. Dacă aveți o oală de lut, cu atât mai bine. Veți obține niște rulouri de varză umplute minunate, care se potrivesc de minune cu tacos și pâine de porumb sau polenta în straturi. Dacă le fierbeți pe aragaz, asigurați-vă că verificați constant nivelul apei și rotiți oala, astfel încât rulourile de varză umplute să nu se lipească. Când sunt gata, le puteți servi cu smântână și ardei iute și, mai ales, cu poftă mare! Sunt extraordinare! Metoda de preparare Puteți găsi instrucțiunile și metoda de preparare pentru rețeta de sarmale cu carne de vită în videoclipul de mai jos! Urmăriți-l cu atenție pentru a realiza rețeta perfectă! Etichete ratasarmalevita Rețete pentru toate gusturile Sirop de mentă verde perfect pentru limonadă – rețetă video Supă marocană / harira marocană Langosi cu brânză sărată, deliciul pufos al copilăriei – rețetă video Croissante pufoase de casă – rețetă video &lt;img alt=«guest» src='https://secure. gravatar.com/avatar/205c08a983a9d94f89d4c14cb7c74841d547114f07fd416ac5787c27f0df8d79?s=56&amp;#038; d=mm&amp;#038;r=g' srcset='https://secure.gravatar.com/avatar/205c08a983a9d94f89d4c14cb7c74841d547114f07fd416ac5787c27f0df8d79?s=112&amp; #038;d=mm&amp;#038;r=g 2x' class=«avatar avatar-56 photo» height=«56» width=«56» decoding=«async»/&gt; Etichetă Evaluează această rețetă Evaluează această rețetă Nume* E-mail* Postați comentariul &lt;img alt=«guest» src='https://secure.gravatar.com/avatar/0458f58f4f88f03e9645a736999791993de5b43130acec8c5f644b4c24dfb6bc?s=56&amp; d=mm&amp;#038; r=g' srcset='https://secure.gravatar.com/avatar/0458f58f4f88f03e9645a736999791993de5b43130acec8c5f644b4c24dfb6bc?s=112&amp;# 038;d=mm&amp;#038;r=g 2x' class=«avatar avatar-56 photo» height=«56» width=«56» decoding=«async»/&gt; Etichetă Evaluează această rețetă Evaluează această rețetă Nume* E-mail* Postează comentariu</t>
+  </si>
+  <si>
+    <t>Both texts describe the exact same recipe with almost identical instructions and context; differences are only minor wording and diacritics.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,000%"/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,19 +221,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -253,12 +253,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,146 +572,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0857426-4964-4FCE-8D3B-FFADD6602E2B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="31" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="176.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="184.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.46484375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="384.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="123" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3">
         <v>0.98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="169.15" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>46035.92796296296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="384.4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3">
         <v>0.95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4">
-        <v>46034.694641203707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="169.15" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>46035.92864583333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="384.4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>0.98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4">
-        <v>46034.695219907408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="123" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2">
+        <v>46035.929305555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="384.4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>0.98</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46035.930011574077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="399.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="4">
-        <v>46034.69568287037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="123" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="3">
         <v>0.98</v>
@@ -723,8 +721,8 @@
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4">
-        <v>46034.696261574078</v>
+      <c r="G6" s="2">
+        <v>46035.930706018517</v>
       </c>
     </row>
   </sheetData>
@@ -734,16 +732,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFEF6EE-3410-464A-9562-EF3FA500ADD3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
@@ -755,7 +753,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -763,20 +761,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2.5694444444444445E-3</v>
-      </c>
+        <v>3.4375E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
